--- a/public/20211108_SUGGEREIX_Taules_A7.0_A7.1.xlsx
+++ b/public/20211108_SUGGEREIX_Taules_A7.0_A7.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ficra-my.sharepoint.com/personal/mfont_icra_cat/Documents/Documentos/SUGGEREIX_Taules_transformades/Taules_SAD_actuals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{14B28C5C-0CCF-4690-BFED-42C49B9772CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AFAA1F3-51AC-4E9D-901D-73F49DA32F35}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{14B28C5C-0CCF-4690-BFED-42C49B9772CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53C1215A-FAAF-4547-8CE0-C432E80420CC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,7 +433,7 @@
     <t>RD 1620/2007</t>
   </si>
   <si>
-    <t>Càlcul</t>
+    <t>Càlcul PT3</t>
   </si>
   <si>
     <t>&lt;1</t>
@@ -469,7 +469,7 @@
     <t>Reglament 2020/741 i Directiva 91/271/CE</t>
   </si>
   <si>
-    <t>Càlcul PT4</t>
+    <t>Càlcul PT3 PT4</t>
   </si>
   <si>
     <t>RD 1620/2008</t>
@@ -18223,21 +18223,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010042169B78D842A848BE799D251A5B2C6A" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="92a5d1b374687efaa1547a4938c7f32d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="758674b2-73ae-44f0-9f19-d4ad379aa2ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2a4062e1d4e72a534a424cbbdf0881a7" ns2:_="">
     <xsd:import namespace="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
@@ -18369,8 +18354,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E395BBEA-EA9C-4EF7-B558-DEB17E42F9E5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B2CC75-CDF6-4748-BBA8-1797BE0D7B07}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18378,5 +18378,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B2CC75-CDF6-4748-BBA8-1797BE0D7B07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E395BBEA-EA9C-4EF7-B558-DEB17E42F9E5}"/>
 </file>